--- a/2019/D/excelFile.xlsx
+++ b/2019/D/excelFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D04C8BF-BD50-49D2-80E5-B7FACE996BAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3546631A-B37C-46C1-916E-203A32DCDFB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,50 @@
   </si>
   <si>
     <t>s14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//两个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -904,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>500</v>
       </c>
@@ -915,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>535</v>
       </c>
@@ -926,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>503</v>
       </c>
@@ -935,6 +979,735 @@
       </c>
       <c r="C51">
         <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>503</v>
+      </c>
+      <c r="B52">
+        <v>505</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>517</v>
+      </c>
+      <c r="B53">
+        <v>516</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>516</v>
+      </c>
+      <c r="B54">
+        <v>531</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>500</v>
+      </c>
+      <c r="B55">
+        <v>531</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>516</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>531</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>526</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>526</v>
+      </c>
+      <c r="B59">
+        <v>606</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>606</v>
+      </c>
+      <c r="B60">
+        <v>605</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>605</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>605</v>
+      </c>
+      <c r="B62">
+        <v>617</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>617</v>
+      </c>
+      <c r="B63">
+        <v>632</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>617</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>632</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>632</v>
+      </c>
+      <c r="B66">
+        <v>633</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>633</v>
+      </c>
+      <c r="B67">
+        <v>635</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>633</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>635</v>
+      </c>
+      <c r="B69">
+        <v>636</v>
+      </c>
+      <c r="C69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>636</v>
+      </c>
+      <c r="B70">
+        <v>640</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>640</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>640</v>
+      </c>
+      <c r="B72">
+        <v>641</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>641</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>641</v>
+      </c>
+      <c r="B74">
+        <v>645</v>
+      </c>
+      <c r="C74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>645</v>
+      </c>
+      <c r="B75">
+        <v>651</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>645</v>
+      </c>
+      <c r="B76">
+        <v>656</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>656</v>
+      </c>
+      <c r="B77">
+        <v>600</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>645</v>
+      </c>
+      <c r="B78">
+        <v>650</v>
+      </c>
+      <c r="C78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>661</v>
+      </c>
+      <c r="B79">
+        <v>650</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>661</v>
+      </c>
+      <c r="B80">
+        <v>663</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>661</v>
+      </c>
+      <c r="B81">
+        <v>600</v>
+      </c>
+      <c r="C81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>663</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>660</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>600</v>
+      </c>
+      <c r="B84">
+        <v>601</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>601</v>
+      </c>
+      <c r="B85">
+        <v>605</v>
+      </c>
+      <c r="C85">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>661</v>
+      </c>
+      <c r="B86">
+        <v>703</v>
+      </c>
+      <c r="C86">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>703</v>
+      </c>
+      <c r="B87">
+        <v>706</v>
+      </c>
+      <c r="C87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>703</v>
+      </c>
+      <c r="B88">
+        <v>705</v>
+      </c>
+      <c r="C88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>706</v>
+      </c>
+      <c r="B89">
+        <v>709</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>706</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>703</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>706</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>709</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>703</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>703</v>
+      </c>
+      <c r="B95">
+        <v>702</v>
+      </c>
+      <c r="C95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>702</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>702</v>
+      </c>
+      <c r="B97">
+        <v>701</v>
+      </c>
+      <c r="C97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>702</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>701</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>709</v>
+      </c>
+      <c r="B100">
+        <v>710</v>
+      </c>
+      <c r="C100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>710</v>
+      </c>
+      <c r="B101">
+        <v>711</v>
+      </c>
+      <c r="C101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>701</v>
+      </c>
+      <c r="B102">
+        <v>711</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>700</v>
+      </c>
+      <c r="B103">
+        <v>701</v>
+      </c>
+      <c r="C103">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>700</v>
+      </c>
+      <c r="B104">
+        <v>715</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>715</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>700</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>712</v>
+      </c>
+      <c r="B107">
+        <v>715</v>
+      </c>
+      <c r="C107">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>712</v>
+      </c>
+      <c r="B108">
+        <v>716</v>
+      </c>
+      <c r="C108">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>716</v>
+      </c>
+      <c r="B109">
+        <v>717</v>
+      </c>
+      <c r="C109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>717</v>
+      </c>
+      <c r="B110">
+        <v>727</v>
+      </c>
+      <c r="C110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>718</v>
+      </c>
+      <c r="B111">
+        <v>727</v>
+      </c>
+      <c r="C111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>718</v>
+      </c>
+      <c r="B112">
+        <v>734</v>
+      </c>
+      <c r="C112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>717</v>
+      </c>
+      <c r="B113">
+        <v>718</v>
+      </c>
+      <c r="C113">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>718</v>
+      </c>
+      <c r="B114">
+        <v>726</v>
+      </c>
+      <c r="C114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>718</v>
+      </c>
+      <c r="B115">
+        <v>720</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>720</v>
+      </c>
+      <c r="B116">
+        <v>717</v>
+      </c>
+      <c r="C116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>718</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/2019/D/excelFile.xlsx
+++ b/2019/D/excelFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3546631A-B37C-46C1-916E-203A32DCDFB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C8FF03-1A3D-45D1-87E8-BDB38CC4F582}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,54 @@
   </si>
   <si>
     <t>s24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//两条路都能走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -458,7 +506,7 @@
         <v>848</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>45</v>
@@ -948,7 +996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>500</v>
       </c>
@@ -959,7 +1007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>535</v>
       </c>
@@ -970,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>503</v>
       </c>
@@ -981,7 +1029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>503</v>
       </c>
@@ -992,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>517</v>
       </c>
@@ -1003,7 +1051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>516</v>
       </c>
@@ -1014,7 +1062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>500</v>
       </c>
@@ -1025,7 +1073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>516</v>
       </c>
@@ -1036,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>531</v>
       </c>
@@ -1047,230 +1095,230 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>526</v>
-      </c>
-      <c r="B59">
-        <v>606</v>
+        <v>505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>526</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>526</v>
+      </c>
+      <c r="B61">
         <v>606</v>
       </c>
-      <c r="B60">
+      <c r="C61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>606</v>
+      </c>
+      <c r="B62">
         <v>605</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>605</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>605</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>617</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>617</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>632</v>
       </c>
-      <c r="C63">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>617</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>20</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>632</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="C67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>632</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>633</v>
       </c>
-      <c r="C66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="C68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>633</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>635</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>633</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="C70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>635</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>636</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>636</v>
       </c>
-      <c r="B70">
+      <c r="B72">
         <v>640</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>640</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>640</v>
-      </c>
-      <c r="B72">
-        <v>641</v>
-      </c>
-      <c r="C72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>641</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>640</v>
+      </c>
+      <c r="B74">
         <v>641</v>
       </c>
-      <c r="B74">
+      <c r="C74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>641</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>641</v>
+      </c>
+      <c r="B76">
         <v>645</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>645</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>651</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>645</v>
-      </c>
-      <c r="B76">
-        <v>656</v>
-      </c>
-      <c r="C76">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>656</v>
-      </c>
-      <c r="B77">
-        <v>600</v>
-      </c>
-      <c r="C77">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>645</v>
       </c>
@@ -1278,29 +1326,29 @@
         <v>650</v>
       </c>
       <c r="C78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>656</v>
+      </c>
+      <c r="B79">
+        <v>600</v>
+      </c>
+      <c r="C79">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>645</v>
+      </c>
+      <c r="B80">
+        <v>650</v>
+      </c>
+      <c r="C80">
         <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>661</v>
-      </c>
-      <c r="B79">
-        <v>650</v>
-      </c>
-      <c r="C79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>661</v>
-      </c>
-      <c r="B80">
-        <v>663</v>
-      </c>
-      <c r="C80">
-        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,40 +1356,40 @@
         <v>661</v>
       </c>
       <c r="B81">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="C81">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>661</v>
+      </c>
+      <c r="B82">
         <v>663</v>
       </c>
-      <c r="B82" t="s">
-        <v>11</v>
-      </c>
       <c r="C82">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>660</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
+        <v>661</v>
+      </c>
+      <c r="B83">
+        <v>600</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>600</v>
-      </c>
-      <c r="B84">
-        <v>601</v>
+        <v>663</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -1349,79 +1397,79 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>601</v>
-      </c>
-      <c r="B85">
-        <v>605</v>
+        <v>600</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="B86">
-        <v>703</v>
+        <v>601</v>
       </c>
       <c r="C86">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>703</v>
+        <v>601</v>
       </c>
       <c r="B87">
-        <v>706</v>
+        <v>605</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>661</v>
+      </c>
+      <c r="B88">
         <v>703</v>
       </c>
-      <c r="B88">
-        <v>705</v>
-      </c>
       <c r="C88">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>703</v>
+      </c>
+      <c r="B89">
         <v>706</v>
       </c>
-      <c r="B89">
-        <v>709</v>
-      </c>
       <c r="C89">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>706</v>
-      </c>
-      <c r="B90" t="s">
-        <v>12</v>
+        <v>703</v>
+      </c>
+      <c r="B90">
+        <v>705</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>703</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
+        <v>706</v>
+      </c>
+      <c r="B91">
+        <v>709</v>
       </c>
       <c r="C91">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,62 +1477,62 @@
         <v>706</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>703</v>
-      </c>
-      <c r="B95">
-        <v>702</v>
+        <v>709</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>703</v>
+      </c>
+      <c r="B97">
         <v>702</v>
-      </c>
-      <c r="B97">
-        <v>701</v>
       </c>
       <c r="C97">
         <v>50</v>
@@ -1495,29 +1543,29 @@
         <v>702</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>702</v>
+      </c>
+      <c r="B99">
         <v>701</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
       <c r="C99">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>709</v>
-      </c>
-      <c r="B100">
-        <v>710</v>
+        <v>702</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>40</v>
@@ -1525,142 +1573,142 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>710</v>
-      </c>
-      <c r="B101">
-        <v>711</v>
+        <v>701</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B102">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C102">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B103">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="C103">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B104">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C104">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>715</v>
-      </c>
-      <c r="B105" t="s">
-        <v>15</v>
+        <v>700</v>
+      </c>
+      <c r="B105">
+        <v>701</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>700</v>
       </c>
-      <c r="B106" t="s">
-        <v>15</v>
+      <c r="B106">
+        <v>715</v>
       </c>
       <c r="C106">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>712</v>
-      </c>
-      <c r="B107">
         <v>715</v>
       </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
       <c r="C107">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>712</v>
-      </c>
-      <c r="B108">
-        <v>716</v>
+        <v>700</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B109">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C109">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B110">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="C110">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B111">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C111">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B112">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C112">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B113">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C113">
         <v>25</v>
@@ -1671,7 +1719,7 @@
         <v>718</v>
       </c>
       <c r="B114">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C114">
         <v>40</v>
@@ -1679,10 +1727,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>717</v>
+      </c>
+      <c r="B115">
         <v>718</v>
-      </c>
-      <c r="B115">
-        <v>720</v>
       </c>
       <c r="C115">
         <v>25</v>
@@ -1690,24 +1738,445 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B116">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C116">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>718</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117">
+        <v>720</v>
+      </c>
+      <c r="C117">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>720</v>
+      </c>
+      <c r="B118">
+        <v>717</v>
+      </c>
+      <c r="C118">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>718</v>
+      </c>
+      <c r="B119" t="s">
         <v>16</v>
       </c>
-      <c r="C117">
+      <c r="C119">
         <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>564</v>
+      </c>
+      <c r="B120">
+        <v>558</v>
+      </c>
+      <c r="C120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>212</v>
+      </c>
+      <c r="B121">
+        <v>218</v>
+      </c>
+      <c r="C121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>212</v>
+      </c>
+      <c r="B122">
+        <v>208</v>
+      </c>
+      <c r="C122">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>208</v>
+      </c>
+      <c r="B123">
+        <v>201</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>201</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>218</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+      <c r="C125">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>212</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>208</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>219</v>
+      </c>
+      <c r="B130">
+        <v>226</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>219</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>226</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>226</v>
+      </c>
+      <c r="B133">
+        <v>230</v>
+      </c>
+      <c r="C133">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>230</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>226</v>
+      </c>
+      <c r="B135">
+        <v>229</v>
+      </c>
+      <c r="C135">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>226</v>
+      </c>
+      <c r="B136">
+        <v>229</v>
+      </c>
+      <c r="C136">
+        <v>80</v>
+      </c>
+      <c r="D136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>226</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>229</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>229</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>229</v>
+      </c>
+      <c r="B140">
+        <v>230</v>
+      </c>
+      <c r="C140">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>229</v>
+      </c>
+      <c r="B141">
+        <v>231</v>
+      </c>
+      <c r="C141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>231</v>
+      </c>
+      <c r="B142">
+        <v>305</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>305</v>
+      </c>
+      <c r="B143">
+        <v>308</v>
+      </c>
+      <c r="C143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>308</v>
+      </c>
+      <c r="B144">
+        <v>312</v>
+      </c>
+      <c r="C144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>312</v>
+      </c>
+      <c r="B145">
+        <v>316</v>
+      </c>
+      <c r="C145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>308</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>312</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>316</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>316</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>316</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>317</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>317</v>
+      </c>
+      <c r="B152">
+        <v>321</v>
+      </c>
+      <c r="C152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>321</v>
+      </c>
+      <c r="B153">
+        <v>323</v>
+      </c>
+      <c r="C153">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>323</v>
+      </c>
+      <c r="B154">
+        <v>328</v>
+      </c>
+      <c r="C154">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>328</v>
+      </c>
+      <c r="B155" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/2019/D/excelFile.xlsx
+++ b/2019/D/excelFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C8FF03-1A3D-45D1-87E8-BDB38CC4F582}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3687FFA-464D-4BEE-8825-6D5453C09B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,15 +126,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>s19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>s17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s21</t>
+    <t>s03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1375,68 +1415,68 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>661</v>
-      </c>
-      <c r="B83">
-        <v>600</v>
+        <v>663</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
       </c>
       <c r="C83">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>663</v>
+        <v>600</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>600</v>
       </c>
-      <c r="B85" t="s">
-        <v>11</v>
+      <c r="B85">
+        <v>601</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B86">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>601</v>
+        <v>661</v>
       </c>
       <c r="B87">
-        <v>605</v>
+        <v>703</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="B88">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C88">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,7 +1484,7 @@
         <v>703</v>
       </c>
       <c r="B89">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C89">
         <v>40</v>
@@ -1452,167 +1492,167 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B90">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C90">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>706</v>
       </c>
-      <c r="B91">
-        <v>709</v>
+      <c r="B91" t="s">
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>703</v>
       </c>
-      <c r="B96" t="s">
-        <v>14</v>
+      <c r="B96">
+        <v>702</v>
       </c>
       <c r="C96">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>703</v>
-      </c>
-      <c r="B97">
         <v>702</v>
       </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
       <c r="C97">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>702</v>
       </c>
-      <c r="B98" t="s">
-        <v>14</v>
+      <c r="B98">
+        <v>701</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>702</v>
       </c>
-      <c r="B99">
-        <v>701</v>
+      <c r="B99" t="s">
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="C100">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>701</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
+        <v>709</v>
+      </c>
+      <c r="B101">
+        <v>710</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B102">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B103">
         <v>711</v>
       </c>
       <c r="C103">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>700</v>
+      </c>
+      <c r="B104">
         <v>701</v>
       </c>
-      <c r="B104">
-        <v>711</v>
-      </c>
       <c r="C104">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,18 +1660,18 @@
         <v>700</v>
       </c>
       <c r="B105">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="C105">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>700</v>
-      </c>
-      <c r="B106">
         <v>715</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
       </c>
       <c r="C106">
         <v>30</v>
@@ -1639,24 +1679,24 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
       </c>
       <c r="C107">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>700</v>
-      </c>
-      <c r="B108" t="s">
-        <v>15</v>
+        <v>712</v>
+      </c>
+      <c r="B108">
+        <v>715</v>
       </c>
       <c r="C108">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,37 +1704,37 @@
         <v>712</v>
       </c>
       <c r="B109">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C109">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B110">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C110">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B111">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="C111">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B112">
         <v>727</v>
@@ -1708,32 +1748,32 @@
         <v>718</v>
       </c>
       <c r="B113">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>717</v>
+      </c>
+      <c r="B114">
         <v>718</v>
       </c>
-      <c r="B114">
-        <v>734</v>
-      </c>
       <c r="C114">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B115">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,18 +1781,18 @@
         <v>718</v>
       </c>
       <c r="B116">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C116">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B117">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C117">
         <v>25</v>
@@ -1760,32 +1800,32 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>720</v>
-      </c>
-      <c r="B118">
-        <v>717</v>
+        <v>718</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
       </c>
       <c r="C118">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>718</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
+        <v>564</v>
+      </c>
+      <c r="B119">
+        <v>558</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>564</v>
+        <v>212</v>
       </c>
       <c r="B120">
-        <v>558</v>
+        <v>218</v>
       </c>
       <c r="C120">
         <v>60</v>
@@ -1796,29 +1836,29 @@
         <v>212</v>
       </c>
       <c r="B121">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C121">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B122">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C122">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B123">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123">
         <v>30</v>
@@ -1826,29 +1866,29 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B124">
         <v>200</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>218</v>
-      </c>
-      <c r="B125">
-        <v>200</v>
+        <v>212</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
       </c>
       <c r="C125">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
@@ -1859,10 +1899,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C127">
         <v>40</v>
@@ -1870,32 +1910,32 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>200</v>
-      </c>
-      <c r="B129" t="s">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="B129">
+        <v>226</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>219</v>
       </c>
-      <c r="B130">
-        <v>226</v>
+      <c r="B130" t="s">
+        <v>21</v>
       </c>
       <c r="C130">
         <v>20</v>
@@ -1903,7 +1943,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B131" t="s">
         <v>21</v>
@@ -1916,33 +1956,33 @@
       <c r="A132">
         <v>226</v>
       </c>
-      <c r="B132" t="s">
-        <v>21</v>
+      <c r="B132">
+        <v>230</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>226</v>
-      </c>
-      <c r="B133">
         <v>230</v>
       </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
       <c r="C133">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>230</v>
-      </c>
-      <c r="B134" t="s">
-        <v>22</v>
+        <v>226</v>
+      </c>
+      <c r="B134">
+        <v>229</v>
       </c>
       <c r="C134">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,32 +1993,32 @@
         <v>229</v>
       </c>
       <c r="C135">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="D135" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>226</v>
       </c>
-      <c r="B136">
-        <v>229</v>
+      <c r="B136" t="s">
+        <v>24</v>
       </c>
       <c r="C136">
-        <v>80</v>
-      </c>
-      <c r="D136" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
       </c>
       <c r="C137">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,21 +2026,21 @@
         <v>229</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C138">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>229</v>
       </c>
-      <c r="B139" t="s">
-        <v>22</v>
+      <c r="B139">
+        <v>230</v>
       </c>
       <c r="C139">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,51 +2048,51 @@
         <v>229</v>
       </c>
       <c r="B140">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C140">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B141">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="C141">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="B142">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B143">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C143">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B144">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C144">
         <v>40</v>
@@ -2060,10 +2100,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>312</v>
-      </c>
-      <c r="B145">
-        <v>316</v>
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
       </c>
       <c r="C145">
         <v>40</v>
@@ -2071,24 +2111,24 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
       </c>
       <c r="C146">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
         <v>25</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,73 +2136,73 @@
         <v>316</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C148">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B149" t="s">
         <v>26</v>
       </c>
       <c r="C149">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>316</v>
-      </c>
-      <c r="B150" t="s">
-        <v>27</v>
+        <v>317</v>
+      </c>
+      <c r="B150">
+        <v>321</v>
       </c>
       <c r="C150">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>317</v>
-      </c>
-      <c r="B151" t="s">
-        <v>27</v>
+        <v>321</v>
+      </c>
+      <c r="B151">
+        <v>323</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B152">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C152">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>321</v>
-      </c>
-      <c r="B153">
-        <v>323</v>
+        <v>328</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
       </c>
       <c r="C153">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>323</v>
-      </c>
-      <c r="B154">
-        <v>328</v>
+        <v>337</v>
+      </c>
+      <c r="B154" t="s">
+        <v>28</v>
       </c>
       <c r="C154">
         <v>50</v>
@@ -2172,11 +2212,561 @@
       <c r="A155">
         <v>328</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155">
+        <v>337</v>
+      </c>
+      <c r="C155">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>338</v>
+      </c>
+      <c r="B156">
+        <v>337</v>
+      </c>
+      <c r="C156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>338</v>
+      </c>
+      <c r="B157">
+        <v>339</v>
+      </c>
+      <c r="C157">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>339</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>338</v>
+      </c>
+      <c r="B159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>337</v>
+      </c>
+      <c r="B160" t="s">
+        <v>29</v>
+      </c>
+      <c r="C160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>339</v>
+      </c>
+      <c r="B161">
+        <v>345</v>
+      </c>
+      <c r="C161">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>348</v>
+      </c>
+      <c r="B162">
+        <v>345</v>
+      </c>
+      <c r="C162">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>348</v>
+      </c>
+      <c r="B163">
+        <v>347</v>
+      </c>
+      <c r="C163">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>347</v>
+      </c>
+      <c r="B164">
+        <v>345</v>
+      </c>
+      <c r="C164">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>348</v>
+      </c>
+      <c r="B165" t="s">
+        <v>30</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>305</v>
+      </c>
+      <c r="B166">
+        <v>300</v>
+      </c>
+      <c r="C166">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>308</v>
+      </c>
+      <c r="B167">
+        <v>300</v>
+      </c>
+      <c r="C167">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>300</v>
+      </c>
+      <c r="B168" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>347</v>
+      </c>
+      <c r="B169">
+        <v>408</v>
+      </c>
+      <c r="C169">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>408</v>
+      </c>
+      <c r="B170">
+        <v>410</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>410</v>
+      </c>
+      <c r="B171">
+        <v>413</v>
+      </c>
+      <c r="C171">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>408</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>408</v>
+      </c>
+      <c r="B173" t="s">
         <v>28</v>
       </c>
-      <c r="C155">
-        <v>40</v>
+      <c r="C173">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>408</v>
+      </c>
+      <c r="B174">
+        <v>406</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>406</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>406</v>
+      </c>
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>406</v>
+      </c>
+      <c r="B177">
+        <v>418</v>
+      </c>
+      <c r="C177">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>418</v>
+      </c>
+      <c r="B178">
+        <v>419</v>
+      </c>
+      <c r="C178">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>419</v>
+      </c>
+      <c r="B179">
+        <v>408</v>
+      </c>
+      <c r="C179">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>419</v>
+      </c>
+      <c r="B180">
+        <v>410</v>
+      </c>
+      <c r="C180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>419</v>
+      </c>
+      <c r="B181">
+        <v>423</v>
+      </c>
+      <c r="C181">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>419</v>
+      </c>
+      <c r="B182">
+        <v>417</v>
+      </c>
+      <c r="C182">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>423</v>
+      </c>
+      <c r="B183">
+        <v>410</v>
+      </c>
+      <c r="C183">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>419</v>
+      </c>
+      <c r="B184">
+        <v>413</v>
+      </c>
+      <c r="C184">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>417</v>
+      </c>
+      <c r="B185">
+        <v>413</v>
+      </c>
+      <c r="C185">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>413</v>
+      </c>
+      <c r="B186">
+        <v>423</v>
+      </c>
+      <c r="C186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>417</v>
+      </c>
+      <c r="B187" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>417</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>413</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>413</v>
+      </c>
+      <c r="B190" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>418</v>
+      </c>
+      <c r="B191">
+        <v>406</v>
+      </c>
+      <c r="C191">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>406</v>
+      </c>
+      <c r="B192" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>406</v>
+      </c>
+      <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>406</v>
+      </c>
+      <c r="B194">
+        <v>403</v>
+      </c>
+      <c r="C194">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>403</v>
+      </c>
+      <c r="B195" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>403</v>
+      </c>
+      <c r="B196" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>403</v>
+      </c>
+      <c r="B197">
+        <v>405</v>
+      </c>
+      <c r="C197">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>405</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>403</v>
+      </c>
+      <c r="B199">
+        <v>400</v>
+      </c>
+      <c r="C199">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>400</v>
+      </c>
+      <c r="B200">
+        <v>402</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>402</v>
+      </c>
+      <c r="B201" t="s">
+        <v>38</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>427</v>
+      </c>
+      <c r="B202">
+        <v>424</v>
+      </c>
+      <c r="C202">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>427</v>
+      </c>
+      <c r="B203">
+        <v>433</v>
+      </c>
+      <c r="C203">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>424</v>
+      </c>
+      <c r="B204" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>424</v>
+      </c>
+      <c r="B205" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2019/D/excelFile.xlsx
+++ b/2019/D/excelFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3687FFA-464D-4BEE-8825-6D5453C09B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5223E579-C2F6-401D-8CD9-DB610737AAA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,66 @@
   </si>
   <si>
     <t>s10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2769,6 +2829,578 @@
         <v>35</v>
       </c>
     </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>100</v>
+      </c>
+      <c r="B206">
+        <v>101</v>
+      </c>
+      <c r="C206">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>101</v>
+      </c>
+      <c r="B207">
+        <v>102</v>
+      </c>
+      <c r="C207">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>102</v>
+      </c>
+      <c r="B208">
+        <v>104</v>
+      </c>
+      <c r="C208">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>104</v>
+      </c>
+      <c r="B209">
+        <v>105</v>
+      </c>
+      <c r="C209">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>101</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>102</v>
+      </c>
+      <c r="B211" t="s">
+        <v>39</v>
+      </c>
+      <c r="C211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>105</v>
+      </c>
+      <c r="B212" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>105</v>
+      </c>
+      <c r="B213" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>100</v>
+      </c>
+      <c r="B214" t="s">
+        <v>43</v>
+      </c>
+      <c r="C214">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>131</v>
+      </c>
+      <c r="B215" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>130</v>
+      </c>
+      <c r="B216" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>131</v>
+      </c>
+      <c r="B217">
+        <v>132</v>
+      </c>
+      <c r="C217">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>130</v>
+      </c>
+      <c r="B218">
+        <v>132</v>
+      </c>
+      <c r="C218">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>130</v>
+      </c>
+      <c r="B219">
+        <v>131</v>
+      </c>
+      <c r="C219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>132</v>
+      </c>
+      <c r="B220">
+        <v>127</v>
+      </c>
+      <c r="C220">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>132</v>
+      </c>
+      <c r="B221">
+        <v>133</v>
+      </c>
+      <c r="C221">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>127</v>
+      </c>
+      <c r="B222">
+        <v>135</v>
+      </c>
+      <c r="C222">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>133</v>
+      </c>
+      <c r="B223" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>135</v>
+      </c>
+      <c r="B224" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>133</v>
+      </c>
+      <c r="B225">
+        <v>137</v>
+      </c>
+      <c r="C225">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>135</v>
+      </c>
+      <c r="B226">
+        <v>137</v>
+      </c>
+      <c r="C226">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>170</v>
+      </c>
+      <c r="B227" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>160</v>
+      </c>
+      <c r="B228" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>183</v>
+      </c>
+      <c r="B229" t="s">
+        <v>46</v>
+      </c>
+      <c r="C229">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>46</v>
+      </c>
+      <c r="B230" t="s">
+        <v>47</v>
+      </c>
+      <c r="C230">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>46</v>
+      </c>
+      <c r="B231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>160</v>
+      </c>
+      <c r="B232" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>160</v>
+      </c>
+      <c r="B233" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>170</v>
+      </c>
+      <c r="B234" t="s">
+        <v>47</v>
+      </c>
+      <c r="C234">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>170</v>
+      </c>
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>183</v>
+      </c>
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>183</v>
+      </c>
+      <c r="B237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>160</v>
+      </c>
+      <c r="B238">
+        <v>164</v>
+      </c>
+      <c r="C238">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>164</v>
+      </c>
+      <c r="B239" t="s">
+        <v>49</v>
+      </c>
+      <c r="C239">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>164</v>
+      </c>
+      <c r="B240">
+        <v>169</v>
+      </c>
+      <c r="C240">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>169</v>
+      </c>
+      <c r="B241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>164</v>
+      </c>
+      <c r="B242" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>183</v>
+      </c>
+      <c r="B243" t="s">
+        <v>51</v>
+      </c>
+      <c r="C243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>170</v>
+      </c>
+      <c r="B244" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>183</v>
+      </c>
+      <c r="B245">
+        <v>186</v>
+      </c>
+      <c r="C245">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>186</v>
+      </c>
+      <c r="B246">
+        <v>180</v>
+      </c>
+      <c r="C246">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>183</v>
+      </c>
+      <c r="B247">
+        <v>181</v>
+      </c>
+      <c r="C247">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>181</v>
+      </c>
+      <c r="B248">
+        <v>179</v>
+      </c>
+      <c r="C248">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>180</v>
+      </c>
+      <c r="B249">
+        <v>179</v>
+      </c>
+      <c r="C249">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>180</v>
+      </c>
+      <c r="B250">
+        <v>181</v>
+      </c>
+      <c r="C250">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>170</v>
+      </c>
+      <c r="B251">
+        <v>186</v>
+      </c>
+      <c r="C251">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>173</v>
+      </c>
+      <c r="B252">
+        <v>179</v>
+      </c>
+      <c r="C252">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>174</v>
+      </c>
+      <c r="B253">
+        <v>179</v>
+      </c>
+      <c r="C253">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>173</v>
+      </c>
+      <c r="B254" t="s">
+        <v>52</v>
+      </c>
+      <c r="C254">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>43</v>
+      </c>
+      <c r="B255" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>44</v>
+      </c>
+      <c r="B256" t="s">
+        <v>53</v>
+      </c>
+      <c r="C256">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>46</v>
+      </c>
+      <c r="B257" t="s">
+        <v>53</v>
+      </c>
+      <c r="C257">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/D/excelFile.xlsx
+++ b/2019/D/excelFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5223E579-C2F6-401D-8CD9-DB610737AAA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,13 +230,17 @@
   </si>
   <si>
     <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,16 +558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>864</v>
       </c>
@@ -579,7 +578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>848</v>
       </c>
@@ -590,7 +589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>848</v>
       </c>
@@ -601,18 +600,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>848</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>855</v>
       </c>
@@ -623,7 +622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>855</v>
       </c>
@@ -634,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>803</v>
       </c>
@@ -645,7 +644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>811</v>
       </c>
@@ -656,7 +655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>845</v>
       </c>
@@ -667,7 +666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>802</v>
       </c>
@@ -678,7 +677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>801</v>
       </c>
@@ -689,7 +688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>843</v>
       </c>
@@ -700,7 +699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>836</v>
       </c>
@@ -711,7 +710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>802</v>
       </c>
@@ -722,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>800</v>
       </c>
@@ -733,7 +732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>811</v>
       </c>
@@ -744,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>818</v>
       </c>
@@ -755,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>825</v>
       </c>
@@ -766,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>835</v>
       </c>
@@ -777,7 +776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>830</v>
       </c>
@@ -788,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>909</v>
       </c>
@@ -799,7 +798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>912</v>
       </c>
@@ -810,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>913</v>
       </c>
@@ -821,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>912</v>
       </c>
@@ -832,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>913</v>
       </c>
@@ -843,7 +842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>913</v>
       </c>
@@ -854,7 +853,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>917</v>
       </c>
@@ -865,7 +864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>917</v>
       </c>
@@ -876,7 +875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>924</v>
       </c>
@@ -887,7 +886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>931</v>
       </c>
@@ -898,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>936</v>
       </c>
@@ -909,7 +908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>940</v>
       </c>
@@ -920,7 +919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>940</v>
       </c>
@@ -931,7 +930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>952</v>
       </c>
@@ -942,7 +941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>952</v>
       </c>
@@ -953,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>900</v>
       </c>
@@ -964,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>900</v>
       </c>
@@ -975,7 +974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>909</v>
       </c>
@@ -986,7 +985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>558</v>
       </c>
@@ -997,7 +996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>552</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>557</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>505</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>507</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>517</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>552</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>548</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>544</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>535</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>500</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>535</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>503</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>503</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>517</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>516</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>500</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>516</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>531</v>
       </c>
@@ -1195,29 +1194,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>557</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>505</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>526</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>526</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>606</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>605</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>605</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>617</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>617</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>632</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>632</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>633</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>633</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>635</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>636</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>640</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>640</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>641</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>641</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>645</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>645</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>656</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>645</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>661</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>661</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>663</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>600</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>600</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>601</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>661</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>703</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>703</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>706</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>706</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>703</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>706</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>709</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>703</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>703</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>702</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>702</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>702</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>701</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>709</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>710</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>701</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>700</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>700</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>715</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>700</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>712</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>712</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>716</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>717</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>718</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>718</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>717</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>718</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>718</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>720</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>718</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>564</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>212</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>212</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>208</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>201</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>218</v>
       </c>
@@ -1935,51 +1934,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>212</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>218</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126">
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>208</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>219</v>
       </c>
@@ -1990,29 +1989,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C131">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>226</v>
       </c>
@@ -2023,18 +2022,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>230</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C133">
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>226</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>226</v>
       </c>
@@ -2056,43 +2055,43 @@
         <v>80</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>229</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>229</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138">
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>229</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>229</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>231</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>305</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>308</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>312</v>
       </c>
@@ -2158,62 +2157,62 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>308</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C145">
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>312</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C146">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>316</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C147">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>316</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C148">
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>317</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C149">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>317</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>321</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>323</v>
       </c>
@@ -2246,29 +2245,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>328</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C153">
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>337</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C154">
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>328</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>338</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>338</v>
       </c>
@@ -2301,40 +2300,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>339</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C158">
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>338</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C159">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>337</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C160">
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>339</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>348</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>348</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>347</v>
       </c>
@@ -2378,18 +2377,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>348</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C165">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>305</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>308</v>
       </c>
@@ -2411,18 +2410,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>300</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C168">
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>347</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>408</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>410</v>
       </c>
@@ -2455,29 +2454,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>408</v>
       </c>
       <c r="B172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C172">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>408</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C173">
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>408</v>
       </c>
@@ -2488,29 +2487,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>406</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C175">
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>406</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C176">
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>406</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>418</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>419</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>419</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>419</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>419</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>423</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>419</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>417</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>413</v>
       </c>
@@ -2620,51 +2619,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>417</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C187">
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>417</v>
       </c>
       <c r="B188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C188">
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>413</v>
       </c>
       <c r="B189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C189">
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>413</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C190">
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>418</v>
       </c>
@@ -2675,29 +2674,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>406</v>
       </c>
       <c r="B192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C192">
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>406</v>
       </c>
       <c r="B193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C193">
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>406</v>
       </c>
@@ -2708,29 +2707,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>403</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C195">
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>403</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C196">
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>403</v>
       </c>
@@ -2741,18 +2740,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>405</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C198">
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>403</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>400</v>
       </c>
@@ -2774,18 +2773,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>402</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C201">
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>427</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>427</v>
       </c>
@@ -2807,29 +2806,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>424</v>
       </c>
       <c r="B204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C204">
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>424</v>
       </c>
       <c r="B205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C205">
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>100</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>101</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>102</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>104</v>
       </c>
@@ -2873,84 +2872,84 @@
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>101</v>
       </c>
       <c r="B210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C210">
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>102</v>
       </c>
       <c r="B211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C211">
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>105</v>
       </c>
       <c r="B212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C212">
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>105</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C213">
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>100</v>
       </c>
       <c r="B214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C214">
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>131</v>
       </c>
       <c r="B215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C215">
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>130</v>
       </c>
       <c r="B216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C216">
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>131</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>130</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>130</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>132</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>132</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>127</v>
       </c>
@@ -3016,29 +3015,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>133</v>
       </c>
       <c r="B223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C223">
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>135</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C224">
         <v>70</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>133</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>135</v>
       </c>
@@ -3060,128 +3059,128 @@
         <v>110</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>170</v>
       </c>
       <c r="B227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C227">
         <v>80</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>160</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C228">
         <v>105</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>183</v>
       </c>
       <c r="B229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C229">
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
         <v>46</v>
-      </c>
-      <c r="B230" t="s">
-        <v>47</v>
       </c>
       <c r="C230">
         <v>70</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C231">
         <v>70</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>160</v>
       </c>
       <c r="B232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C232">
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>160</v>
       </c>
       <c r="B233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C233">
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>170</v>
       </c>
       <c r="B234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C234">
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>170</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C235">
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>183</v>
       </c>
       <c r="B236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C236">
         <v>35</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>183</v>
       </c>
       <c r="B237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C237">
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>160</v>
       </c>
@@ -3192,18 +3191,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>164</v>
       </c>
       <c r="B239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C239">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>164</v>
       </c>
@@ -3214,51 +3213,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>169</v>
       </c>
       <c r="B241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C241">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>164</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C242">
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>183</v>
       </c>
       <c r="B243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C243">
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>170</v>
       </c>
       <c r="B244" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C244">
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>183</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>186</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>183</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>181</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>180</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>180</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>170</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>173</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>174</v>
       </c>
@@ -3357,45 +3356,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>173</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C254">
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C255">
         <v>180</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C256">
         <v>220</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C257">
         <v>180</v>
